--- a/testing.xlsx
+++ b/testing.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harvey\Documents\Code\Python\finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FA49C1-89C1-4562-B936-63C8ED8D2F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D26583-EB42-4D89-8E7A-E707B0D2E3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="2000" windowWidth="28800" windowHeight="15370" xr2:uid="{0466506A-86D3-430F-9D8A-70371BFC9BCD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{0466506A-86D3-430F-9D8A-70371BFC9BCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
   <si>
     <t>Date</t>
   </si>
@@ -125,6 +126,186 @@
   </si>
   <si>
     <t>X Variable 2</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>adjClose</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>unadjustedVolume</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>changePercent</t>
+  </si>
+  <si>
+    <t>vwap</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>changeOverTime</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>fillingDate</t>
+  </si>
+  <si>
+    <t>netIncome</t>
+  </si>
+  <si>
+    <t>weightedAverageShsOut</t>
+  </si>
+  <si>
+    <t>weightedAverageShsOutDil</t>
+  </si>
+  <si>
+    <t>operatingIncome</t>
+  </si>
+  <si>
+    <t>depreciationAndAmortization</t>
+  </si>
+  <si>
+    <t>incomeBeforeTax</t>
+  </si>
+  <si>
+    <t>incomeTaxExpense</t>
+  </si>
+  <si>
+    <t>interestExpense</t>
+  </si>
+  <si>
+    <t>eps</t>
+  </si>
+  <si>
+    <t>shortTermDebt</t>
+  </si>
+  <si>
+    <t>longTermDebt</t>
+  </si>
+  <si>
+    <t>cashAndCashEquivalents</t>
+  </si>
+  <si>
+    <t>capitalExpenditure</t>
+  </si>
+  <si>
+    <t>netCashProvidedByOperatingActivities</t>
+  </si>
+  <si>
+    <t>freeCashFlow</t>
+  </si>
+  <si>
+    <t>pe_ratio</t>
+  </si>
+  <si>
+    <t>ebitda</t>
+  </si>
+  <si>
+    <t>ev</t>
+  </si>
+  <si>
+    <t>ebitda_ev_ratio</t>
+  </si>
+  <si>
+    <t>fcf</t>
+  </si>
+  <si>
+    <t>fcf_price_ratio</t>
+  </si>
+  <si>
+    <t>depreciationAndAmortization_ttm</t>
+  </si>
+  <si>
+    <t>netIncome_ttm</t>
+  </si>
+  <si>
+    <t>operatingIncome_ttm</t>
+  </si>
+  <si>
+    <t>capitalExpenditure_ttm</t>
+  </si>
+  <si>
+    <t>netCashProvidedByOperatingActivities_ttm</t>
+  </si>
+  <si>
+    <t>revenue</t>
+  </si>
+  <si>
+    <t>costOfRevenue</t>
+  </si>
+  <si>
+    <t>costOfRevenue_ttm</t>
+  </si>
+  <si>
+    <t>incomeTaxExpense_ttm</t>
+  </si>
+  <si>
+    <t>interestExpense_ttm</t>
+  </si>
+  <si>
+    <t>revenue_ttm</t>
+  </si>
+  <si>
+    <t>totalCurrentLiabilities</t>
+  </si>
+  <si>
+    <t>totalAssets</t>
+  </si>
+  <si>
+    <t>totalCurrentAssets</t>
+  </si>
+  <si>
+    <t>totalAssets_ttm_avg</t>
+  </si>
+  <si>
+    <t>totalCurrentAssets_ttm_avg</t>
+  </si>
+  <si>
+    <t>totalCurrentLiabilities_ttm_avg</t>
+  </si>
+  <si>
+    <t>fcf_asset_ratio</t>
+  </si>
+  <si>
+    <t>roa</t>
+  </si>
+  <si>
+    <t>ebit</t>
+  </si>
+  <si>
+    <t>invested_capital</t>
+  </si>
+  <si>
+    <t>gross_margin</t>
+  </si>
+  <si>
+    <t>current_ratio</t>
+  </si>
+  <si>
+    <t>interest_coverage</t>
   </si>
 </sst>
 </file>
@@ -188,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -199,6 +380,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,7 +697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19559BA2-40A8-4CA7-9379-249479210DC3}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -4489,4 +4671,874 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F433E5D0-278E-4947-A16F-BB8586F4DAC6}">
+  <dimension ref="A1:BI146"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AS14" sqref="AS14:BJ14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="33" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="37" bestFit="1" customWidth="1"/>
+    <col min="49" max="51" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>58</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44498</v>
+      </c>
+      <c r="C2">
+        <v>147.220001</v>
+      </c>
+      <c r="D2">
+        <v>149.94000199999999</v>
+      </c>
+      <c r="E2">
+        <v>146.41000399999999</v>
+      </c>
+      <c r="F2">
+        <v>149.800003</v>
+      </c>
+      <c r="G2">
+        <v>149.58169599999999</v>
+      </c>
+      <c r="H2">
+        <v>124850400</v>
+      </c>
+      <c r="I2">
+        <v>124850400</v>
+      </c>
+      <c r="J2">
+        <v>2.58</v>
+      </c>
+      <c r="K2">
+        <v>1.752</v>
+      </c>
+      <c r="L2">
+        <v>148.71666999999999</v>
+      </c>
+      <c r="M2" s="6">
+        <v>44498</v>
+      </c>
+      <c r="N2">
+        <v>1.7520000000000001E-2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>44498</v>
+      </c>
+      <c r="Q2">
+        <v>20551000000</v>
+      </c>
+      <c r="R2">
+        <v>16487121000</v>
+      </c>
+      <c r="S2">
+        <v>16635097000</v>
+      </c>
+      <c r="T2">
+        <v>23786000000</v>
+      </c>
+      <c r="U2">
+        <v>2989000000</v>
+      </c>
+      <c r="V2">
+        <v>23248000000</v>
+      </c>
+      <c r="W2">
+        <v>2697000000</v>
+      </c>
+      <c r="X2">
+        <v>672000000</v>
+      </c>
+      <c r="Y2">
+        <v>1.25</v>
+      </c>
+      <c r="Z2">
+        <v>83360000000</v>
+      </c>
+      <c r="AA2">
+        <v>48186000000</v>
+      </c>
+      <c r="AB2">
+        <v>212981000000</v>
+      </c>
+      <c r="AC2">
+        <v>11284000000</v>
+      </c>
+      <c r="AD2">
+        <v>14527000000</v>
+      </c>
+      <c r="AE2">
+        <v>2645000000</v>
+      </c>
+      <c r="AF2">
+        <v>94680000000</v>
+      </c>
+      <c r="AG2">
+        <v>108949000000</v>
+      </c>
+      <c r="AH2">
+        <v>365817000000</v>
+      </c>
+      <c r="AI2">
+        <v>15613000000</v>
+      </c>
+      <c r="AJ2">
+        <v>109106000000</v>
+      </c>
+      <c r="AK2">
+        <v>34940000000</v>
+      </c>
+      <c r="AL2">
+        <v>125481000000</v>
+      </c>
+      <c r="AM2">
+        <v>351002000000</v>
+      </c>
+      <c r="AN2">
+        <v>134836000000</v>
+      </c>
+      <c r="AO2">
+        <v>343013500000</v>
+      </c>
+      <c r="AP2">
+        <v>131207500000</v>
+      </c>
+      <c r="AQ2">
+        <v>118031750000</v>
+      </c>
+      <c r="AR2">
+        <v>-3223000000</v>
+      </c>
+      <c r="AS2">
+        <v>20200000000</v>
+      </c>
+      <c r="AT2">
+        <v>16977000000</v>
+      </c>
+      <c r="AU2">
+        <v>-11085000000</v>
+      </c>
+      <c r="AV2">
+        <v>104038000000</v>
+      </c>
+      <c r="AW2">
+        <v>26.319577318391328</v>
+      </c>
+      <c r="AX2">
+        <v>120233000000</v>
+      </c>
+      <c r="AY2">
+        <v>2559549775261.3633</v>
+      </c>
+      <c r="AZ2">
+        <v>4.6974276945922121E-2</v>
+      </c>
+      <c r="BA2">
+        <v>92953000000</v>
+      </c>
+      <c r="BB2">
+        <v>3.7301496123812172E-2</v>
+      </c>
+      <c r="BC2">
+        <v>0.27098933423903143</v>
+      </c>
+      <c r="BD2">
+        <v>0.2760241214995911</v>
+      </c>
+      <c r="BE2">
+        <v>111852000000</v>
+      </c>
+      <c r="BF2">
+        <v>224981750000</v>
+      </c>
+      <c r="BG2">
+        <v>0.41779359625167778</v>
+      </c>
+      <c r="BH2">
+        <v>1.1116288625729942</v>
+      </c>
+      <c r="BI2">
+        <v>42.288090737240076</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B101" s="1"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B102" s="1"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B105" s="1"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B106" s="1"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B107" s="1"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B113" s="1"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B115" s="1"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B116" s="1"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B122" s="1"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B123" s="1"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B125" s="1"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B126" s="1"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B128" s="1"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B129" s="1"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B130" s="1"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B131" s="1"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B133" s="1"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B134" s="1"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B135" s="1"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B136" s="1"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B137" s="1"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B138" s="1"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B140" s="1"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B141" s="1"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B142" s="1"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B143" s="1"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B144" s="1"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B145" s="1"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B146" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>